--- a/course_materials/Week2/预测性分析（线性回归）.xlsx
+++ b/course_materials/Week2/预测性分析（线性回归）.xlsx
@@ -1,26 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyuexu/Data-Analysis/course_materials/Week2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB9C2A7-4ADB-4C2A-BC0E-F4FFAC64DCBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F1F852-B731-9B4D-B629-2DC1915D9578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Sheet1!$A$1</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>date</t>
   </si>
@@ -36,15 +58,115 @@
   <si>
     <t>review评分</t>
   </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>回归统计</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>标准误差</t>
+  </si>
+  <si>
+    <t>观测值</t>
+  </si>
+  <si>
+    <t>方差分析</t>
+  </si>
+  <si>
+    <t>回归分析</t>
+  </si>
+  <si>
+    <t>残差</t>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>下限 95.0%</t>
+  </si>
+  <si>
+    <t>上限 95.0%</t>
+  </si>
+  <si>
+    <t>解释39.7%的变化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有关系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">这个数不接近于0 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Review 总数越多，排名越低，这本书的生命周期也许已经走到末端</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hardNP 价格越高，排名越低，正相关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Review评分越高，排名越高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用 ln改进</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,15 +189,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -98,18 +226,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -411,22 +568,345 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54FC4FF-5AC0-4648-BD69-7E1D3D952101}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="171" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1"/>
+    <row r="3" spans="1:9">
+      <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.6305201471768741</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.397555655995947</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.39422723420586936</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3">
+        <v>54415.426565403664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1">
+      <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1061023274539.4451</v>
+      </c>
+      <c r="D12" s="3">
+        <v>353674424846.48169</v>
+      </c>
+      <c r="E12" s="7">
+        <v>119.4426911820792</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2.0810739278769488E-59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3">
+        <v>543</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1607843986024.0974</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2961038648.2948389</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1">
+      <c r="A14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="4">
+        <v>546</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2668867260563.5425</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1"/>
+    <row r="16" spans="1:9">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>6674645.9053605581</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1603879.4080463189</v>
+      </c>
+      <c r="D17" s="3">
+        <v>4.1615634391683631</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3.6745201356917517E-5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3524077.5847124737</v>
+      </c>
+      <c r="G17" s="3">
+        <v>9825214.2260086425</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3524077.5847124737</v>
+      </c>
+      <c r="I17" s="3">
+        <v>9825214.2260086425</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="7">
+        <v>888.2229421316888</v>
+      </c>
+      <c r="C18" s="3">
+        <v>930.05818975827492</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.95501867723194911</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.33999321244265401</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-938.72979154110544</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2715.175675804483</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-938.72979154110544</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2715.175675804483</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3">
+        <v>4657.0150568826111</v>
+      </c>
+      <c r="C19" s="3">
+        <v>339.02306963679342</v>
+      </c>
+      <c r="D19" s="3">
+        <v>13.736572740822107</v>
+      </c>
+      <c r="E19" s="3">
+        <v>4.5619503117225169E-37</v>
+      </c>
+      <c r="F19" s="3">
+        <v>3991.0576676873607</v>
+      </c>
+      <c r="G19" s="3">
+        <v>5322.9724460778616</v>
+      </c>
+      <c r="H19" s="3">
+        <v>3991.0576676873607</v>
+      </c>
+      <c r="I19" s="3">
+        <v>5322.9724460778616</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" thickBot="1">
+      <c r="A20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="4">
+        <v>-2056554.1594371411</v>
+      </c>
+      <c r="C20" s="4">
+        <v>422475.41579575575</v>
+      </c>
+      <c r="D20" s="4">
+        <v>-4.8678670581659951</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1.4810907553678765E-6</v>
+      </c>
+      <c r="F20" s="4">
+        <v>-2886440.5303084203</v>
+      </c>
+      <c r="G20" s="4">
+        <v>-1226667.788565862</v>
+      </c>
+      <c r="H20" s="4">
+        <v>-2886440.5303084203</v>
+      </c>
+      <c r="I20" s="4">
+        <v>-1226667.788565862</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E548"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,7 +923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>42736</v>
       </c>
@@ -460,7 +940,7 @@
         <v>3.7239800000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>42737</v>
       </c>
@@ -477,7 +957,7 @@
         <v>3.7239800000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>42738</v>
       </c>
@@ -494,7 +974,7 @@
         <v>3.72973</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>42739</v>
       </c>
@@ -511,7 +991,7 @@
         <v>3.72973</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>42740</v>
       </c>
@@ -528,7 +1008,7 @@
         <v>3.72973</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>42741</v>
       </c>
@@ -545,7 +1025,7 @@
         <v>3.72973</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>42742</v>
       </c>
@@ -562,7 +1042,7 @@
         <v>3.72973</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>42743</v>
       </c>
@@ -579,7 +1059,7 @@
         <v>3.72973</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>42744</v>
       </c>
@@ -596,7 +1076,7 @@
         <v>3.72973</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>42745</v>
       </c>
@@ -613,7 +1093,7 @@
         <v>3.72973</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>42746</v>
       </c>
@@ -630,7 +1110,7 @@
         <v>3.7264599999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>42747</v>
       </c>
@@ -647,7 +1127,7 @@
         <v>3.7321399999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>42748</v>
       </c>
@@ -664,7 +1144,7 @@
         <v>3.7321399999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <v>42749</v>
       </c>
@@ -681,7 +1161,7 @@
         <v>3.7321399999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
         <v>42750</v>
       </c>
@@ -698,7 +1178,7 @@
         <v>3.7321399999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17" s="2">
         <v>42751</v>
       </c>
@@ -715,7 +1195,7 @@
         <v>3.7321399999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="A18" s="2">
         <v>42752</v>
       </c>
@@ -732,7 +1212,7 @@
         <v>3.7321399999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="A19" s="2">
         <v>42753</v>
       </c>
@@ -749,7 +1229,7 @@
         <v>3.7321399999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="A20" s="2">
         <v>42754</v>
       </c>
@@ -766,7 +1246,7 @@
         <v>3.7321399999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="A21" s="2">
         <v>42755</v>
       </c>
@@ -783,7 +1263,7 @@
         <v>3.7321399999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5">
       <c r="A22" s="2">
         <v>42756</v>
       </c>
@@ -800,7 +1280,7 @@
         <v>3.7321399999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5">
       <c r="A23" s="2">
         <v>42757</v>
       </c>
@@ -817,7 +1297,7 @@
         <v>3.7321399999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5">
       <c r="A24" s="2">
         <v>42758</v>
       </c>
@@ -834,7 +1314,7 @@
         <v>3.7321399999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5">
       <c r="A25" s="2">
         <v>42759</v>
       </c>
@@ -851,7 +1331,7 @@
         <v>3.7321399999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5">
       <c r="A26" s="2">
         <v>42760</v>
       </c>
@@ -868,7 +1348,7 @@
         <v>3.7321399999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5">
       <c r="A27" s="2">
         <v>42761</v>
       </c>
@@ -885,7 +1365,7 @@
         <v>3.7321399999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5">
       <c r="A28" s="2">
         <v>42762</v>
       </c>
@@ -902,7 +1382,7 @@
         <v>3.7321399999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5">
       <c r="A29" s="2">
         <v>42763</v>
       </c>
@@ -919,7 +1399,7 @@
         <v>3.7321399999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5">
       <c r="A30" s="2">
         <v>42764</v>
       </c>
@@ -936,7 +1416,7 @@
         <v>3.7321399999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5">
       <c r="A31" s="2">
         <v>42765</v>
       </c>
@@ -953,7 +1433,7 @@
         <v>3.7321399999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5">
       <c r="A32" s="2">
         <v>42766</v>
       </c>
@@ -970,7 +1450,7 @@
         <v>3.7377799999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5">
       <c r="A33" s="2">
         <v>42767</v>
       </c>
@@ -987,7 +1467,7 @@
         <v>3.7377799999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5">
       <c r="A34" s="2">
         <v>42768</v>
       </c>
@@ -1004,7 +1484,7 @@
         <v>3.7377799999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5">
       <c r="A35" s="2">
         <v>42769</v>
       </c>
@@ -1021,7 +1501,7 @@
         <v>3.7377799999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5">
       <c r="A36" s="2">
         <v>42770</v>
       </c>
@@ -1038,7 +1518,7 @@
         <v>3.7389399999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5">
       <c r="A37" s="2">
         <v>42771</v>
       </c>
@@ -1055,7 +1535,7 @@
         <v>3.7389399999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5">
       <c r="A38" s="2">
         <v>42772</v>
       </c>
@@ -1072,7 +1552,7 @@
         <v>3.7389399999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5">
       <c r="A39" s="2">
         <v>42773</v>
       </c>
@@ -1089,7 +1569,7 @@
         <v>3.7389399999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5">
       <c r="A40" s="2">
         <v>42774</v>
       </c>
@@ -1106,7 +1586,7 @@
         <v>3.7389399999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5">
       <c r="A41" s="2">
         <v>42775</v>
       </c>
@@ -1123,7 +1603,7 @@
         <v>3.7389399999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5">
       <c r="A42" s="2">
         <v>42776</v>
       </c>
@@ -1140,7 +1620,7 @@
         <v>3.7444899999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5">
       <c r="A43" s="2">
         <v>42777</v>
       </c>
@@ -1157,7 +1637,7 @@
         <v>3.7368399999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5">
       <c r="A44" s="2">
         <v>42778</v>
       </c>
@@ -1174,7 +1654,7 @@
         <v>3.7368399999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5">
       <c r="A45" s="2">
         <v>42779</v>
       </c>
@@ -1191,7 +1671,7 @@
         <v>3.7368399999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5">
       <c r="A46" s="2">
         <v>42780</v>
       </c>
@@ -1208,7 +1688,7 @@
         <v>3.7368399999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5">
       <c r="A47" s="2">
         <v>42781</v>
       </c>
@@ -1225,7 +1705,7 @@
         <v>3.7423600000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5">
       <c r="A48" s="2">
         <v>42782</v>
       </c>
@@ -1242,7 +1722,7 @@
         <v>3.7423600000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5">
       <c r="A49" s="2">
         <v>42783</v>
       </c>
@@ -1259,7 +1739,7 @@
         <v>3.7423600000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5">
       <c r="A50" s="2">
         <v>42784</v>
       </c>
@@ -1276,7 +1756,7 @@
         <v>3.7423600000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5">
       <c r="A51" s="2">
         <v>42785</v>
       </c>
@@ -1293,7 +1773,7 @@
         <v>3.7434799999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5">
       <c r="A52" s="2">
         <v>42786</v>
       </c>
@@ -1310,7 +1790,7 @@
         <v>3.7434799999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5">
       <c r="A53" s="2">
         <v>42787</v>
       </c>
@@ -1327,7 +1807,7 @@
         <v>3.7434799999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5">
       <c r="A54" s="2">
         <v>42788</v>
       </c>
@@ -1344,7 +1824,7 @@
         <v>3.7434799999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5">
       <c r="A55" s="2">
         <v>42789</v>
       </c>
@@ -1361,7 +1841,7 @@
         <v>3.7434799999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5">
       <c r="A56" s="2">
         <v>42790</v>
       </c>
@@ -1378,7 +1858,7 @@
         <v>3.7402600000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5">
       <c r="A57" s="2">
         <v>42791</v>
       </c>
@@ -1395,7 +1875,7 @@
         <v>3.7402600000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5">
       <c r="A58" s="2">
         <v>42792</v>
       </c>
@@ -1412,7 +1892,7 @@
         <v>3.7402600000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5">
       <c r="A59" s="2">
         <v>42793</v>
       </c>
@@ -1429,7 +1909,7 @@
         <v>3.7402600000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5">
       <c r="A60" s="2">
         <v>42794</v>
       </c>
@@ -1446,7 +1926,7 @@
         <v>3.7402600000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5">
       <c r="A61" s="2">
         <v>42795</v>
       </c>
@@ -1463,7 +1943,7 @@
         <v>3.7402600000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5">
       <c r="A62" s="2">
         <v>42796</v>
       </c>
@@ -1480,7 +1960,7 @@
         <v>3.7402600000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5">
       <c r="A63" s="2">
         <v>42797</v>
       </c>
@@ -1497,7 +1977,7 @@
         <v>3.7402600000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5">
       <c r="A64" s="2">
         <v>42798</v>
       </c>
@@ -1514,7 +1994,7 @@
         <v>3.7402600000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:5">
       <c r="A65" s="2">
         <v>42799</v>
       </c>
@@ -1531,7 +2011,7 @@
         <v>3.7402600000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:5">
       <c r="A66" s="2">
         <v>42800</v>
       </c>
@@ -1548,7 +2028,7 @@
         <v>3.7402600000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:5">
       <c r="A67" s="2">
         <v>42801</v>
       </c>
@@ -1565,7 +2045,7 @@
         <v>3.7402600000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:5">
       <c r="A68" s="2">
         <v>42802</v>
       </c>
@@ -1582,7 +2062,7 @@
         <v>3.7402600000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:5">
       <c r="A69" s="2">
         <v>42803</v>
       </c>
@@ -1599,7 +2079,7 @@
         <v>3.7402600000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:5">
       <c r="A70" s="2">
         <v>42804</v>
       </c>
@@ -1616,7 +2096,7 @@
         <v>3.7402600000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:5">
       <c r="A71" s="2">
         <v>42805</v>
       </c>
@@ -1633,7 +2113,7 @@
         <v>3.7402600000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:5">
       <c r="A72" s="2">
         <v>42806</v>
       </c>
@@ -1650,7 +2130,7 @@
         <v>3.7402600000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:5">
       <c r="A73" s="2">
         <v>42807</v>
       </c>
@@ -1667,7 +2147,7 @@
         <v>3.7402600000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:5">
       <c r="A74" s="2">
         <v>42808</v>
       </c>
@@ -1684,7 +2164,7 @@
         <v>3.7402600000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:5">
       <c r="A75" s="2">
         <v>42809</v>
       </c>
@@ -1701,7 +2181,7 @@
         <v>3.7402600000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:5">
       <c r="A76" s="2">
         <v>42810</v>
       </c>
@@ -1718,7 +2198,7 @@
         <v>3.7402600000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:5">
       <c r="A77" s="2">
         <v>42811</v>
       </c>
@@ -1735,7 +2215,7 @@
         <v>3.7402600000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:5">
       <c r="A78" s="2">
         <v>42812</v>
       </c>
@@ -1752,7 +2232,7 @@
         <v>3.7402600000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:5">
       <c r="A79" s="2">
         <v>42813</v>
       </c>
@@ -1769,7 +2249,7 @@
         <v>3.7402600000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:5">
       <c r="A80" s="2">
         <v>42814</v>
       </c>
@@ -1786,7 +2266,7 @@
         <v>3.7402600000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:5">
       <c r="A81" s="2">
         <v>42815</v>
       </c>
@@ -1803,7 +2283,7 @@
         <v>3.7402600000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:5">
       <c r="A82" s="2">
         <v>42816</v>
       </c>
@@ -1820,7 +2300,7 @@
         <v>3.7456900000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:5">
       <c r="A83" s="2">
         <v>42817</v>
       </c>
@@ -1837,7 +2317,7 @@
         <v>3.7456900000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:5">
       <c r="A84" s="2">
         <v>42818</v>
       </c>
@@ -1854,7 +2334,7 @@
         <v>3.7456900000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:5">
       <c r="A85" s="2">
         <v>42819</v>
       </c>
@@ -1871,7 +2351,7 @@
         <v>3.7456900000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:5">
       <c r="A86" s="2">
         <v>42820</v>
       </c>
@@ -1888,7 +2368,7 @@
         <v>3.7456900000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:5">
       <c r="A87" s="2">
         <v>42821</v>
       </c>
@@ -1905,7 +2385,7 @@
         <v>3.7456900000000002</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:5">
       <c r="A88" s="2">
         <v>42822</v>
       </c>
@@ -1922,7 +2402,7 @@
         <v>3.7456900000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:5">
       <c r="A89" s="2">
         <v>42823</v>
       </c>
@@ -1939,7 +2419,7 @@
         <v>3.7456900000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:5">
       <c r="A90" s="2">
         <v>42824</v>
       </c>
@@ -1956,7 +2436,7 @@
         <v>3.7456900000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:5">
       <c r="A91" s="2">
         <v>42825</v>
       </c>
@@ -1973,7 +2453,7 @@
         <v>3.7456900000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:5">
       <c r="A92" s="2">
         <v>42826</v>
       </c>
@@ -1990,7 +2470,7 @@
         <v>3.7456900000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:5">
       <c r="A93" s="2">
         <v>42827</v>
       </c>
@@ -2007,7 +2487,7 @@
         <v>3.7456900000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:5">
       <c r="A94" s="2">
         <v>42828</v>
       </c>
@@ -2024,7 +2504,7 @@
         <v>3.7456900000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:5">
       <c r="A95" s="2">
         <v>42829</v>
       </c>
@@ -2041,7 +2521,7 @@
         <v>3.7456900000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:5">
       <c r="A96" s="2">
         <v>42830</v>
       </c>
@@ -2058,7 +2538,7 @@
         <v>3.7456900000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:5">
       <c r="A97" s="2">
         <v>42831</v>
       </c>
@@ -2075,7 +2555,7 @@
         <v>3.7456900000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:5">
       <c r="A98" s="2">
         <v>42832</v>
       </c>
@@ -2092,7 +2572,7 @@
         <v>3.7456900000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:5">
       <c r="A99" s="2">
         <v>42833</v>
       </c>
@@ -2109,7 +2589,7 @@
         <v>3.7456900000000002</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:5">
       <c r="A100" s="2">
         <v>42834</v>
       </c>
@@ -2126,7 +2606,7 @@
         <v>3.7456900000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:5">
       <c r="A101" s="2">
         <v>42835</v>
       </c>
@@ -2143,7 +2623,7 @@
         <v>3.7456900000000002</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:5">
       <c r="A102" s="2">
         <v>42836</v>
       </c>
@@ -2160,7 +2640,7 @@
         <v>3.7456900000000002</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:5">
       <c r="A103" s="2">
         <v>42837</v>
       </c>
@@ -2177,7 +2657,7 @@
         <v>3.7456900000000002</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:5">
       <c r="A104" s="2">
         <v>42838</v>
       </c>
@@ -2194,7 +2674,7 @@
         <v>3.7456900000000002</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:5">
       <c r="A105" s="2">
         <v>42839</v>
       </c>
@@ -2211,7 +2691,7 @@
         <v>3.7424900000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:5">
       <c r="A106" s="2">
         <v>42840</v>
       </c>
@@ -2228,7 +2708,7 @@
         <v>3.7424900000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:5">
       <c r="A107" s="2">
         <v>42841</v>
       </c>
@@ -2245,7 +2725,7 @@
         <v>3.7424900000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:5">
       <c r="A108" s="2">
         <v>42842</v>
       </c>
@@ -2262,7 +2742,7 @@
         <v>3.7424900000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:5">
       <c r="A109" s="2">
         <v>42843</v>
       </c>
@@ -2279,7 +2759,7 @@
         <v>3.7424900000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:5">
       <c r="A110" s="2">
         <v>42844</v>
       </c>
@@ -2296,7 +2776,7 @@
         <v>3.7424900000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:5">
       <c r="A111" s="2">
         <v>42845</v>
       </c>
@@ -2313,7 +2793,7 @@
         <v>3.7424900000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:5">
       <c r="A112" s="2">
         <v>42846</v>
       </c>
@@ -2330,7 +2810,7 @@
         <v>3.7424900000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:5">
       <c r="A113" s="2">
         <v>42847</v>
       </c>
@@ -2347,7 +2827,7 @@
         <v>3.7424900000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:5">
       <c r="A114" s="2">
         <v>42848</v>
       </c>
@@ -2364,7 +2844,7 @@
         <v>3.7424900000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:5">
       <c r="A115" s="2">
         <v>42849</v>
       </c>
@@ -2381,7 +2861,7 @@
         <v>3.7424900000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:5">
       <c r="A116" s="2">
         <v>42850</v>
       </c>
@@ -2398,7 +2878,7 @@
         <v>3.7424900000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:5">
       <c r="A117" s="2">
         <v>42851</v>
       </c>
@@ -2415,7 +2895,7 @@
         <v>3.7424900000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:5">
       <c r="A118" s="2">
         <v>42852</v>
       </c>
@@ -2432,7 +2912,7 @@
         <v>3.7424900000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:5">
       <c r="A119" s="2">
         <v>42853</v>
       </c>
@@ -2449,7 +2929,7 @@
         <v>3.7424900000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:5">
       <c r="A120" s="2">
         <v>42854</v>
       </c>
@@ -2466,7 +2946,7 @@
         <v>3.7424900000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:5">
       <c r="A121" s="2">
         <v>42855</v>
       </c>
@@ -2483,7 +2963,7 @@
         <v>3.7424900000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:5">
       <c r="A122" s="2">
         <v>42856</v>
       </c>
@@ -2500,7 +2980,7 @@
         <v>3.7350400000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:5">
       <c r="A123" s="2">
         <v>42857</v>
       </c>
@@ -2517,7 +2997,7 @@
         <v>3.7350400000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:5">
       <c r="A124" s="2">
         <v>42858</v>
       </c>
@@ -2534,7 +3014,7 @@
         <v>3.7350400000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:5">
       <c r="A125" s="2">
         <v>42859</v>
       </c>
@@ -2551,7 +3031,7 @@
         <v>3.7350400000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:5">
       <c r="A126" s="2">
         <v>42860</v>
       </c>
@@ -2568,7 +3048,7 @@
         <v>3.7350400000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:5">
       <c r="A127" s="2">
         <v>42861</v>
       </c>
@@ -2585,7 +3065,7 @@
         <v>3.7350400000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:5">
       <c r="A128" s="2">
         <v>42862</v>
       </c>
@@ -2602,7 +3082,7 @@
         <v>3.7350400000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:5">
       <c r="A129" s="2">
         <v>42863</v>
       </c>
@@ -2619,7 +3099,7 @@
         <v>3.7350400000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:5">
       <c r="A130" s="2">
         <v>42864</v>
       </c>
@@ -2636,7 +3116,7 @@
         <v>3.7350400000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:5">
       <c r="A131" s="2">
         <v>42865</v>
       </c>
@@ -2653,7 +3133,7 @@
         <v>3.7350400000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:5">
       <c r="A132" s="2">
         <v>42866</v>
       </c>
@@ -2670,7 +3150,7 @@
         <v>3.7350400000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:5">
       <c r="A133" s="2">
         <v>42867</v>
       </c>
@@ -2687,7 +3167,7 @@
         <v>3.7350400000000001</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:5">
       <c r="A134" s="2">
         <v>42868</v>
       </c>
@@ -2704,7 +3184,7 @@
         <v>3.7350400000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:5">
       <c r="A135" s="2">
         <v>42869</v>
       </c>
@@ -2721,7 +3201,7 @@
         <v>3.7350400000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:5">
       <c r="A136" s="2">
         <v>42870</v>
       </c>
@@ -2738,7 +3218,7 @@
         <v>3.7350400000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:5">
       <c r="A137" s="2">
         <v>42871</v>
       </c>
@@ -2755,7 +3235,7 @@
         <v>3.7350400000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:5">
       <c r="A138" s="2">
         <v>42872</v>
       </c>
@@ -2772,7 +3252,7 @@
         <v>3.7350400000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:5">
       <c r="A139" s="2">
         <v>42873</v>
       </c>
@@ -2789,7 +3269,7 @@
         <v>3.7350400000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:5">
       <c r="A140" s="2">
         <v>42874</v>
       </c>
@@ -2806,7 +3286,7 @@
         <v>3.7350400000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:5">
       <c r="A141" s="2">
         <v>42875</v>
       </c>
@@ -2823,7 +3303,7 @@
         <v>3.7350400000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:5">
       <c r="A142" s="2">
         <v>42876</v>
       </c>
@@ -2840,7 +3320,7 @@
         <v>3.7350400000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:5">
       <c r="A143" s="2">
         <v>42877</v>
       </c>
@@ -2857,7 +3337,7 @@
         <v>3.7350400000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:5">
       <c r="A144" s="2">
         <v>42878</v>
       </c>
@@ -2874,7 +3354,7 @@
         <v>3.7350400000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:5">
       <c r="A145" s="2">
         <v>42879</v>
       </c>
@@ -2891,7 +3371,7 @@
         <v>3.7350400000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:5">
       <c r="A146" s="2">
         <v>42880</v>
       </c>
@@ -2908,7 +3388,7 @@
         <v>3.7350400000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:5">
       <c r="A147" s="2">
         <v>42881</v>
       </c>
@@ -2925,7 +3405,7 @@
         <v>3.7350400000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:5">
       <c r="A148" s="2">
         <v>42882</v>
       </c>
@@ -2942,7 +3422,7 @@
         <v>3.7350400000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:5">
       <c r="A149" s="2">
         <v>42883</v>
       </c>
@@ -2959,7 +3439,7 @@
         <v>3.7350400000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:5">
       <c r="A150" s="2">
         <v>42884</v>
       </c>
@@ -2976,7 +3456,7 @@
         <v>3.7350400000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:5">
       <c r="A151" s="2">
         <v>42885</v>
       </c>
@@ -2993,7 +3473,7 @@
         <v>3.7350400000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:5">
       <c r="A152" s="2">
         <v>42886</v>
       </c>
@@ -3010,7 +3490,7 @@
         <v>3.7350400000000001</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:5">
       <c r="A153" s="2">
         <v>42887</v>
       </c>
@@ -3027,7 +3507,7 @@
         <v>3.7350400000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:5">
       <c r="A154" s="2">
         <v>42888</v>
       </c>
@@ -3044,7 +3524,7 @@
         <v>3.7350400000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:5">
       <c r="A155" s="2">
         <v>42889</v>
       </c>
@@ -3061,7 +3541,7 @@
         <v>3.7350400000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:5">
       <c r="A156" s="2">
         <v>42890</v>
       </c>
@@ -3078,7 +3558,7 @@
         <v>3.7350400000000001</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:5">
       <c r="A157" s="2">
         <v>42891</v>
       </c>
@@ -3095,7 +3575,7 @@
         <v>3.7350400000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:5">
       <c r="A158" s="2">
         <v>42892</v>
       </c>
@@ -3112,7 +3592,7 @@
         <v>3.7350400000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:5">
       <c r="A159" s="2">
         <v>42893</v>
       </c>
@@ -3129,7 +3609,7 @@
         <v>3.7350400000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:5">
       <c r="A160" s="2">
         <v>42894</v>
       </c>
@@ -3146,7 +3626,7 @@
         <v>3.7350400000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:5">
       <c r="A161" s="2">
         <v>42895</v>
       </c>
@@ -3163,7 +3643,7 @@
         <v>3.7350400000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:5">
       <c r="A162" s="2">
         <v>42896</v>
       </c>
@@ -3180,7 +3660,7 @@
         <v>3.7350400000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:5">
       <c r="A163" s="2">
         <v>42897</v>
       </c>
@@ -3197,7 +3677,7 @@
         <v>3.7350400000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:5">
       <c r="A164" s="2">
         <v>42898</v>
       </c>
@@ -3214,7 +3694,7 @@
         <v>3.7319100000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:5">
       <c r="A165" s="2">
         <v>42899</v>
       </c>
@@ -3231,7 +3711,7 @@
         <v>3.7319100000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:5">
       <c r="A166" s="2">
         <v>42900</v>
       </c>
@@ -3248,7 +3728,7 @@
         <v>3.7319100000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:5">
       <c r="A167" s="2">
         <v>42901</v>
       </c>
@@ -3265,7 +3745,7 @@
         <v>3.7319100000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:5">
       <c r="A168" s="2">
         <v>42902</v>
       </c>
@@ -3282,7 +3762,7 @@
         <v>3.7372899999999998</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:5">
       <c r="A169" s="2">
         <v>42903</v>
       </c>
@@ -3299,7 +3779,7 @@
         <v>3.7372899999999998</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:5">
       <c r="A170" s="2">
         <v>42904</v>
       </c>
@@ -3316,7 +3796,7 @@
         <v>3.7372899999999998</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:5">
       <c r="A171" s="2">
         <v>42905</v>
       </c>
@@ -3333,7 +3813,7 @@
         <v>3.7372899999999998</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:5">
       <c r="A172" s="2">
         <v>42906</v>
       </c>
@@ -3350,7 +3830,7 @@
         <v>3.7372899999999998</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:5">
       <c r="A173" s="2">
         <v>42907</v>
       </c>
@@ -3367,7 +3847,7 @@
         <v>3.7372899999999998</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:5">
       <c r="A174" s="2">
         <v>42908</v>
       </c>
@@ -3384,7 +3864,7 @@
         <v>3.7372899999999998</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:5">
       <c r="A175" s="2">
         <v>42909</v>
       </c>
@@ -3401,7 +3881,7 @@
         <v>3.7372899999999998</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:5">
       <c r="A176" s="2">
         <v>42910</v>
       </c>
@@ -3418,7 +3898,7 @@
         <v>3.7372899999999998</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:5">
       <c r="A177" s="2">
         <v>42911</v>
       </c>
@@ -3435,7 +3915,7 @@
         <v>3.7372899999999998</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:5">
       <c r="A178" s="2">
         <v>42912</v>
       </c>
@@ -3452,7 +3932,7 @@
         <v>3.7372899999999998</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:5">
       <c r="A179" s="2">
         <v>42913</v>
       </c>
@@ -3469,7 +3949,7 @@
         <v>3.7372899999999998</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:5">
       <c r="A180" s="2">
         <v>42914</v>
       </c>
@@ -3486,7 +3966,7 @@
         <v>3.7372899999999998</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:5">
       <c r="A181" s="2">
         <v>42915</v>
       </c>
@@ -3503,7 +3983,7 @@
         <v>3.7372899999999998</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:5">
       <c r="A182" s="2">
         <v>42916</v>
       </c>
@@ -3520,7 +4000,7 @@
         <v>3.7372899999999998</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:5">
       <c r="A183" s="2">
         <v>42917</v>
       </c>
@@ -3537,7 +4017,7 @@
         <v>3.7372899999999998</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:5">
       <c r="A184" s="2">
         <v>42918</v>
       </c>
@@ -3554,7 +4034,7 @@
         <v>3.7372899999999998</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:5">
       <c r="A185" s="2">
         <v>42919</v>
       </c>
@@ -3571,7 +4051,7 @@
         <v>3.7372899999999998</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:5">
       <c r="A186" s="2">
         <v>42920</v>
       </c>
@@ -3588,7 +4068,7 @@
         <v>3.7372899999999998</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:5">
       <c r="A187" s="2">
         <v>42921</v>
       </c>
@@ -3605,7 +4085,7 @@
         <v>3.7372899999999998</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:5">
       <c r="A188" s="2">
         <v>42922</v>
       </c>
@@ -3622,7 +4102,7 @@
         <v>3.7372899999999998</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:5">
       <c r="A189" s="2">
         <v>42923</v>
       </c>
@@ -3639,7 +4119,7 @@
         <v>3.7372899999999998</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:5">
       <c r="A190" s="2">
         <v>42924</v>
       </c>
@@ -3656,7 +4136,7 @@
         <v>3.7372899999999998</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:5">
       <c r="A191" s="2">
         <v>42925</v>
       </c>
@@ -3673,7 +4153,7 @@
         <v>3.7372899999999998</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:5">
       <c r="A192" s="2">
         <v>42926</v>
       </c>
@@ -3690,7 +4170,7 @@
         <v>3.7372899999999998</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:5">
       <c r="A193" s="2">
         <v>42927</v>
       </c>
@@ -3707,7 +4187,7 @@
         <v>3.7372899999999998</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:5">
       <c r="A194" s="2">
         <v>42928</v>
       </c>
@@ -3724,7 +4204,7 @@
         <v>3.7372899999999998</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:5">
       <c r="A195" s="2">
         <v>42929</v>
       </c>
@@ -3741,7 +4221,7 @@
         <v>3.7372899999999998</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:5">
       <c r="A196" s="2">
         <v>42930</v>
       </c>
@@ -3758,7 +4238,7 @@
         <v>3.7372899999999998</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:5">
       <c r="A197" s="2">
         <v>42931</v>
       </c>
@@ -3775,7 +4255,7 @@
         <v>3.7372899999999998</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:5">
       <c r="A198" s="2">
         <v>42932</v>
       </c>
@@ -3792,7 +4272,7 @@
         <v>3.7372899999999998</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:5">
       <c r="A199" s="2">
         <v>42933</v>
       </c>
@@ -3809,7 +4289,7 @@
         <v>3.7372899999999998</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:5">
       <c r="A200" s="2">
         <v>42934</v>
       </c>
@@ -3826,7 +4306,7 @@
         <v>3.7372899999999998</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:5">
       <c r="A201" s="2">
         <v>42935</v>
       </c>
@@ -3843,7 +4323,7 @@
         <v>3.7372899999999998</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:5">
       <c r="A202" s="2">
         <v>42936</v>
       </c>
@@ -3860,7 +4340,7 @@
         <v>3.7372899999999998</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:5">
       <c r="A203" s="2">
         <v>42937</v>
       </c>
@@ -3877,7 +4357,7 @@
         <v>3.7372899999999998</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:5">
       <c r="A204" s="2">
         <v>42938</v>
       </c>
@@ -3894,7 +4374,7 @@
         <v>3.7372899999999998</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:5">
       <c r="A205" s="2">
         <v>42939</v>
       </c>
@@ -3911,7 +4391,7 @@
         <v>3.7372899999999998</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:5">
       <c r="A206" s="2">
         <v>42940</v>
       </c>
@@ -3928,7 +4408,7 @@
         <v>3.7372899999999998</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:5">
       <c r="A207" s="2">
         <v>42941</v>
       </c>
@@ -3945,7 +4425,7 @@
         <v>3.7372899999999998</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:5">
       <c r="A208" s="2">
         <v>42942</v>
       </c>
@@ -3962,7 +4442,7 @@
         <v>3.7372899999999998</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:5">
       <c r="A209" s="2">
         <v>42943</v>
       </c>
@@ -3979,7 +4459,7 @@
         <v>3.7257400000000001</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:5">
       <c r="A210" s="2">
         <v>42944</v>
       </c>
@@ -3996,7 +4476,7 @@
         <v>3.72689</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:5">
       <c r="A211" s="2">
         <v>42945</v>
       </c>
@@ -4013,7 +4493,7 @@
         <v>3.72689</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:5">
       <c r="A212" s="2">
         <v>42946</v>
       </c>
@@ -4030,7 +4510,7 @@
         <v>3.72689</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:5">
       <c r="A213" s="2">
         <v>42947</v>
       </c>
@@ -4047,7 +4527,7 @@
         <v>3.72689</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:5">
       <c r="A214" s="2">
         <v>42948</v>
       </c>
@@ -4064,7 +4544,7 @@
         <v>3.7238500000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:5">
       <c r="A215" s="2">
         <v>42949</v>
       </c>
@@ -4081,7 +4561,7 @@
         <v>3.7238500000000001</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:5">
       <c r="A216" s="2">
         <v>42950</v>
       </c>
@@ -4098,7 +4578,7 @@
         <v>3.7238500000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:5">
       <c r="A217" s="2">
         <v>42951</v>
       </c>
@@ -4115,7 +4595,7 @@
         <v>3.7238500000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:5">
       <c r="A218" s="2">
         <v>42952</v>
       </c>
@@ -4132,7 +4612,7 @@
         <v>3.7238500000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:5">
       <c r="A219" s="2">
         <v>42953</v>
       </c>
@@ -4149,7 +4629,7 @@
         <v>3.7238500000000001</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:5">
       <c r="A220" s="2">
         <v>42954</v>
       </c>
@@ -4166,7 +4646,7 @@
         <v>3.7238500000000001</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:5">
       <c r="A221" s="2">
         <v>42955</v>
       </c>
@@ -4183,7 +4663,7 @@
         <v>3.7238500000000001</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:5">
       <c r="A222" s="2">
         <v>42956</v>
       </c>
@@ -4200,7 +4680,7 @@
         <v>3.7238500000000001</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:5">
       <c r="A223" s="2">
         <v>42957</v>
       </c>
@@ -4217,7 +4697,7 @@
         <v>3.7238500000000001</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:5">
       <c r="A224" s="2">
         <v>42958</v>
       </c>
@@ -4234,7 +4714,7 @@
         <v>3.7238500000000001</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:5">
       <c r="A225" s="2">
         <v>42959</v>
       </c>
@@ -4251,7 +4731,7 @@
         <v>3.7238500000000001</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:5">
       <c r="A226" s="2">
         <v>42960</v>
       </c>
@@ -4268,7 +4748,7 @@
         <v>3.7238500000000001</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:5">
       <c r="A227" s="2">
         <v>42961</v>
       </c>
@@ -4285,7 +4765,7 @@
         <v>3.7250000000000001</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:5">
       <c r="A228" s="2">
         <v>42962</v>
       </c>
@@ -4302,7 +4782,7 @@
         <v>3.7250000000000001</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:5">
       <c r="A229" s="2">
         <v>42963</v>
       </c>
@@ -4319,7 +4799,7 @@
         <v>3.7250000000000001</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:5">
       <c r="A230" s="2">
         <v>42964</v>
       </c>
@@ -4336,7 +4816,7 @@
         <v>3.7250000000000001</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:5">
       <c r="A231" s="2">
         <v>42965</v>
       </c>
@@ -4353,7 +4833,7 @@
         <v>3.7250000000000001</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:5">
       <c r="A232" s="2">
         <v>42966</v>
       </c>
@@ -4370,7 +4850,7 @@
         <v>3.7250000000000001</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:5">
       <c r="A233" s="2">
         <v>42967</v>
       </c>
@@ -4387,7 +4867,7 @@
         <v>3.7250000000000001</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:5">
       <c r="A234" s="2">
         <v>42968</v>
       </c>
@@ -4404,7 +4884,7 @@
         <v>3.7250000000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:5">
       <c r="A235" s="2">
         <v>42969</v>
       </c>
@@ -4421,7 +4901,7 @@
         <v>3.7250000000000001</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:5">
       <c r="A236" s="2">
         <v>42970</v>
       </c>
@@ -4438,7 +4918,7 @@
         <v>3.7250000000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:5">
       <c r="A237" s="2">
         <v>42971</v>
       </c>
@@ -4455,7 +4935,7 @@
         <v>3.7250000000000001</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:5">
       <c r="A238" s="2">
         <v>42972</v>
       </c>
@@ -4472,7 +4952,7 @@
         <v>3.7250000000000001</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:5">
       <c r="A239" s="2">
         <v>42973</v>
       </c>
@@ -4489,7 +4969,7 @@
         <v>3.7250000000000001</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:5">
       <c r="A240" s="2">
         <v>42974</v>
       </c>
@@ -4506,7 +4986,7 @@
         <v>3.7250000000000001</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:5">
       <c r="A241" s="2">
         <v>42975</v>
       </c>
@@ -4523,7 +5003,7 @@
         <v>3.7250000000000001</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:5">
       <c r="A242" s="2">
         <v>42976</v>
       </c>
@@ -4540,7 +5020,7 @@
         <v>3.7250000000000001</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:5">
       <c r="A243" s="2">
         <v>42977</v>
       </c>
@@ -4557,7 +5037,7 @@
         <v>3.7250000000000001</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:5">
       <c r="A244" s="2">
         <v>42978</v>
       </c>
@@ -4574,7 +5054,7 @@
         <v>3.7250000000000001</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:5">
       <c r="A245" s="2">
         <v>42979</v>
       </c>
@@ -4591,7 +5071,7 @@
         <v>3.7250000000000001</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:5">
       <c r="A246" s="2">
         <v>42980</v>
       </c>
@@ -4608,7 +5088,7 @@
         <v>3.7250000000000001</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:5">
       <c r="A247" s="2">
         <v>42981</v>
       </c>
@@ -4625,7 +5105,7 @@
         <v>3.7250000000000001</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:5">
       <c r="A248" s="2">
         <v>42982</v>
       </c>
@@ -4642,7 +5122,7 @@
         <v>3.7250000000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:5">
       <c r="A249" s="2">
         <v>42983</v>
       </c>
@@ -4659,7 +5139,7 @@
         <v>3.7250000000000001</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:5">
       <c r="A250" s="2">
         <v>42984</v>
       </c>
@@ -4676,7 +5156,7 @@
         <v>3.7250000000000001</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:5">
       <c r="A251" s="2">
         <v>42985</v>
       </c>
@@ -4693,7 +5173,7 @@
         <v>3.7231399999999999</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:5">
       <c r="A252" s="2">
         <v>42986</v>
       </c>
@@ -4710,7 +5190,7 @@
         <v>3.7242799999999998</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:5">
       <c r="A253" s="2">
         <v>42987</v>
       </c>
@@ -4727,7 +5207,7 @@
         <v>3.7242799999999998</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:5">
       <c r="A254" s="2">
         <v>42988</v>
       </c>
@@ -4744,7 +5224,7 @@
         <v>3.7242799999999998</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:5">
       <c r="A255" s="2">
         <v>42989</v>
       </c>
@@ -4761,7 +5241,7 @@
         <v>3.7242799999999998</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:5">
       <c r="A256" s="2">
         <v>42990</v>
       </c>
@@ -4778,7 +5258,7 @@
         <v>3.7242799999999998</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:5">
       <c r="A257" s="2">
         <v>42991</v>
       </c>
@@ -4795,7 +5275,7 @@
         <v>3.7242799999999998</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:5">
       <c r="A258" s="2">
         <v>42992</v>
       </c>
@@ -4812,7 +5292,7 @@
         <v>3.7242799999999998</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:5">
       <c r="A259" s="2">
         <v>42993</v>
       </c>
@@ -4829,7 +5309,7 @@
         <v>3.7242799999999998</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:5">
       <c r="A260" s="2">
         <v>42994</v>
       </c>
@@ -4846,7 +5326,7 @@
         <v>3.7242799999999998</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:5">
       <c r="A261" s="2">
         <v>42995</v>
       </c>
@@ -4863,7 +5343,7 @@
         <v>3.7242799999999998</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:5">
       <c r="A262" s="2">
         <v>42996</v>
       </c>
@@ -4880,7 +5360,7 @@
         <v>3.7242799999999998</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:5">
       <c r="A263" s="2">
         <v>42997</v>
       </c>
@@ -4897,7 +5377,7 @@
         <v>3.7242799999999998</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:5">
       <c r="A264" s="2">
         <v>42998</v>
       </c>
@@ -4914,7 +5394,7 @@
         <v>3.7242799999999998</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:5">
       <c r="A265" s="2">
         <v>42999</v>
       </c>
@@ -4931,7 +5411,7 @@
         <v>3.7242799999999998</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:5">
       <c r="A266" s="2">
         <v>43000</v>
       </c>
@@ -4948,7 +5428,7 @@
         <v>3.7242799999999998</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:5">
       <c r="A267" s="2">
         <v>43001</v>
       </c>
@@ -4965,7 +5445,7 @@
         <v>3.7242799999999998</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:5">
       <c r="A268" s="2">
         <v>43002</v>
       </c>
@@ -4982,7 +5462,7 @@
         <v>3.7242799999999998</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:5">
       <c r="A269" s="2">
         <v>43003</v>
       </c>
@@ -4999,7 +5479,7 @@
         <v>3.7242799999999998</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:5">
       <c r="A270" s="2">
         <v>43004</v>
       </c>
@@ -5016,7 +5496,7 @@
         <v>3.7242799999999998</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:5">
       <c r="A271" s="2">
         <v>43005</v>
       </c>
@@ -5033,7 +5513,7 @@
         <v>3.7242799999999998</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:5">
       <c r="A272" s="2">
         <v>43006</v>
       </c>
@@ -5050,7 +5530,7 @@
         <v>3.7242799999999998</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:5">
       <c r="A273" s="2">
         <v>43007</v>
       </c>
@@ -5067,7 +5547,7 @@
         <v>3.7242799999999998</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:5">
       <c r="A274" s="2">
         <v>43008</v>
       </c>
@@ -5084,7 +5564,7 @@
         <v>3.7242799999999998</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:5">
       <c r="A275" s="2">
         <v>43009</v>
       </c>
@@ -5101,7 +5581,7 @@
         <v>3.7242799999999998</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:5">
       <c r="A276" s="2">
         <v>43010</v>
       </c>
@@ -5118,7 +5598,7 @@
         <v>3.7242799999999998</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:5">
       <c r="A277" s="2">
         <v>43011</v>
       </c>
@@ -5135,7 +5615,7 @@
         <v>3.7242799999999998</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:5">
       <c r="A278" s="2">
         <v>43012</v>
       </c>
@@ -5152,7 +5632,7 @@
         <v>3.7242799999999998</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:5">
       <c r="A279" s="2">
         <v>43013</v>
       </c>
@@ -5169,7 +5649,7 @@
         <v>3.7242799999999998</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:5">
       <c r="A280" s="2">
         <v>43014</v>
       </c>
@@ -5186,7 +5666,7 @@
         <v>3.7242799999999998</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:5">
       <c r="A281" s="2">
         <v>43015</v>
       </c>
@@ -5203,7 +5683,7 @@
         <v>3.7242799999999998</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:5">
       <c r="A282" s="2">
         <v>43016</v>
       </c>
@@ -5220,7 +5700,7 @@
         <v>3.7242799999999998</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:5">
       <c r="A283" s="2">
         <v>43017</v>
       </c>
@@ -5237,7 +5717,7 @@
         <v>3.7242799999999998</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:5">
       <c r="A284" s="2">
         <v>43018</v>
       </c>
@@ -5254,7 +5734,7 @@
         <v>3.7242799999999998</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:5">
       <c r="A285" s="2">
         <v>43019</v>
       </c>
@@ -5271,7 +5751,7 @@
         <v>3.7242799999999998</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:5">
       <c r="A286" s="2">
         <v>43020</v>
       </c>
@@ -5288,7 +5768,7 @@
         <v>3.7242799999999998</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:5">
       <c r="A287" s="2">
         <v>43021</v>
       </c>
@@ -5305,7 +5785,7 @@
         <v>3.7242799999999998</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:5">
       <c r="A288" s="2">
         <v>43022</v>
       </c>
@@ -5322,7 +5802,7 @@
         <v>3.7242799999999998</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:5">
       <c r="A289" s="2">
         <v>43023</v>
       </c>
@@ -5339,7 +5819,7 @@
         <v>3.7242799999999998</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:5">
       <c r="A290" s="2">
         <v>43024</v>
       </c>
@@ -5356,7 +5836,7 @@
         <v>3.7242799999999998</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:5">
       <c r="A291" s="2">
         <v>43025</v>
       </c>
@@ -5373,7 +5853,7 @@
         <v>3.7242799999999998</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:5">
       <c r="A292" s="2">
         <v>43026</v>
       </c>
@@ -5390,7 +5870,7 @@
         <v>3.7242799999999998</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:5">
       <c r="A293" s="2">
         <v>43027</v>
       </c>
@@ -5407,7 +5887,7 @@
         <v>3.7242799999999998</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:5">
       <c r="A294" s="2">
         <v>43028</v>
       </c>
@@ -5424,7 +5904,7 @@
         <v>3.7242799999999998</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:5">
       <c r="A295" s="2">
         <v>43029</v>
       </c>
@@ -5441,7 +5921,7 @@
         <v>3.7242799999999998</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:5">
       <c r="A296" s="2">
         <v>43030</v>
       </c>
@@ -5458,7 +5938,7 @@
         <v>3.7242799999999998</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:5">
       <c r="A297" s="2">
         <v>43031</v>
       </c>
@@ -5475,7 +5955,7 @@
         <v>3.7242799999999998</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:5">
       <c r="A298" s="2">
         <v>43032</v>
       </c>
@@ -5492,7 +5972,7 @@
         <v>3.7242799999999998</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:5">
       <c r="A299" s="2">
         <v>43033</v>
       </c>
@@ -5509,7 +5989,7 @@
         <v>3.7242799999999998</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:5">
       <c r="A300" s="2">
         <v>43034</v>
       </c>
@@ -5526,7 +6006,7 @@
         <v>3.7213099999999999</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:5">
       <c r="A301" s="2">
         <v>43035</v>
       </c>
@@ -5543,7 +6023,7 @@
         <v>3.7213099999999999</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:5">
       <c r="A302" s="2">
         <v>43036</v>
       </c>
@@ -5560,7 +6040,7 @@
         <v>3.7265299999999999</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:5">
       <c r="A303" s="2">
         <v>43037</v>
       </c>
@@ -5577,7 +6057,7 @@
         <v>3.7265299999999999</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:5">
       <c r="A304" s="2">
         <v>43038</v>
       </c>
@@ -5594,7 +6074,7 @@
         <v>3.7265299999999999</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:5">
       <c r="A305" s="2">
         <v>43039</v>
       </c>
@@ -5611,7 +6091,7 @@
         <v>3.7265299999999999</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:5">
       <c r="A306" s="2">
         <v>43040</v>
       </c>
@@ -5628,7 +6108,7 @@
         <v>3.7265299999999999</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:5">
       <c r="A307" s="2">
         <v>43041</v>
       </c>
@@ -5645,7 +6125,7 @@
         <v>3.7265299999999999</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:5">
       <c r="A308" s="2">
         <v>43042</v>
       </c>
@@ -5662,7 +6142,7 @@
         <v>3.7265299999999999</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:5">
       <c r="A309" s="2">
         <v>43043</v>
       </c>
@@ -5679,7 +6159,7 @@
         <v>3.7265299999999999</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:5">
       <c r="A310" s="2">
         <v>43044</v>
       </c>
@@ -5696,7 +6176,7 @@
         <v>3.7265299999999999</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:5">
       <c r="A311" s="2">
         <v>43045</v>
       </c>
@@ -5713,7 +6193,7 @@
         <v>3.7265299999999999</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:5">
       <c r="A312" s="2">
         <v>43046</v>
       </c>
@@ -5730,7 +6210,7 @@
         <v>3.7265299999999999</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:5">
       <c r="A313" s="2">
         <v>43047</v>
       </c>
@@ -5747,7 +6227,7 @@
         <v>3.7265299999999999</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:5">
       <c r="A314" s="2">
         <v>43048</v>
       </c>
@@ -5764,7 +6244,7 @@
         <v>3.7265299999999999</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:5">
       <c r="A315" s="2">
         <v>43049</v>
       </c>
@@ -5781,7 +6261,7 @@
         <v>3.7265299999999999</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:5">
       <c r="A316" s="2">
         <v>43050</v>
       </c>
@@ -5798,7 +6278,7 @@
         <v>3.7265299999999999</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:5">
       <c r="A317" s="2">
         <v>43051</v>
       </c>
@@ -5815,7 +6295,7 @@
         <v>3.7265299999999999</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:5">
       <c r="A318" s="2">
         <v>43052</v>
       </c>
@@ -5832,7 +6312,7 @@
         <v>3.7265299999999999</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:5">
       <c r="A319" s="2">
         <v>43053</v>
       </c>
@@ -5849,7 +6329,7 @@
         <v>3.7265299999999999</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:5">
       <c r="A320" s="2">
         <v>43054</v>
       </c>
@@ -5866,7 +6346,7 @@
         <v>3.7265299999999999</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:5">
       <c r="A321" s="2">
         <v>43055</v>
       </c>
@@ -5883,7 +6363,7 @@
         <v>3.7265299999999999</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:5">
       <c r="A322" s="2">
         <v>43056</v>
       </c>
@@ -5900,7 +6380,7 @@
         <v>3.7265299999999999</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:5">
       <c r="A323" s="2">
         <v>43057</v>
       </c>
@@ -5917,7 +6397,7 @@
         <v>3.7265299999999999</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:5">
       <c r="A324" s="2">
         <v>43058</v>
       </c>
@@ -5934,7 +6414,7 @@
         <v>3.7265299999999999</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:5">
       <c r="A325" s="2">
         <v>43059</v>
       </c>
@@ -5951,7 +6431,7 @@
         <v>3.7265299999999999</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:5">
       <c r="A326" s="2">
         <v>43060</v>
       </c>
@@ -5968,7 +6448,7 @@
         <v>3.7265299999999999</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:5">
       <c r="A327" s="2">
         <v>43061</v>
       </c>
@@ -5985,7 +6465,7 @@
         <v>3.7265299999999999</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:5">
       <c r="A328" s="2">
         <v>43062</v>
       </c>
@@ -6002,7 +6482,7 @@
         <v>3.7265299999999999</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:5">
       <c r="A329" s="2">
         <v>43063</v>
       </c>
@@ -6019,7 +6499,7 @@
         <v>3.7265299999999999</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:5">
       <c r="A330" s="2">
         <v>43064</v>
       </c>
@@ -6036,7 +6516,7 @@
         <v>3.7265299999999999</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:5">
       <c r="A331" s="2">
         <v>43065</v>
       </c>
@@ -6053,7 +6533,7 @@
         <v>3.7265299999999999</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:5">
       <c r="A332" s="2">
         <v>43066</v>
       </c>
@@ -6070,7 +6550,7 @@
         <v>3.7265299999999999</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:5">
       <c r="A333" s="2">
         <v>43067</v>
       </c>
@@ -6087,7 +6567,7 @@
         <v>3.7265299999999999</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:5">
       <c r="A334" s="2">
         <v>43068</v>
       </c>
@@ -6104,7 +6584,7 @@
         <v>3.7265299999999999</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:5">
       <c r="A335" s="2">
         <v>43069</v>
       </c>
@@ -6121,7 +6601,7 @@
         <v>3.7265299999999999</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:5">
       <c r="A336" s="2">
         <v>43070</v>
       </c>
@@ -6138,7 +6618,7 @@
         <v>3.7265299999999999</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:5">
       <c r="A337" s="2">
         <v>43071</v>
       </c>
@@ -6155,7 +6635,7 @@
         <v>3.7265299999999999</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:5">
       <c r="A338" s="2">
         <v>43072</v>
       </c>
@@ -6172,7 +6652,7 @@
         <v>3.7265299999999999</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:5">
       <c r="A339" s="2">
         <v>43073</v>
       </c>
@@ -6189,7 +6669,7 @@
         <v>3.7265299999999999</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:5">
       <c r="A340" s="2">
         <v>43074</v>
       </c>
@@ -6206,7 +6686,7 @@
         <v>3.7265299999999999</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:5">
       <c r="A341" s="2">
         <v>43075</v>
       </c>
@@ -6223,7 +6703,7 @@
         <v>3.7265299999999999</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:5">
       <c r="A342" s="2">
         <v>43076</v>
       </c>
@@ -6240,7 +6720,7 @@
         <v>3.7265299999999999</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:5">
       <c r="A343" s="2">
         <v>43077</v>
       </c>
@@ -6257,7 +6737,7 @@
         <v>3.7265299999999999</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:5">
       <c r="A344" s="2">
         <v>43078</v>
       </c>
@@ -6274,7 +6754,7 @@
         <v>3.7265299999999999</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:5">
       <c r="A345" s="2">
         <v>43079</v>
       </c>
@@ -6291,7 +6771,7 @@
         <v>3.7265299999999999</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:5">
       <c r="A346" s="2">
         <v>43080</v>
       </c>
@@ -6308,7 +6788,7 @@
         <v>3.7265299999999999</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:5">
       <c r="A347" s="2">
         <v>43081</v>
       </c>
@@ -6325,7 +6805,7 @@
         <v>3.7265299999999999</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:5">
       <c r="A348" s="2">
         <v>43082</v>
       </c>
@@ -6342,7 +6822,7 @@
         <v>3.7265299999999999</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:5">
       <c r="A349" s="2">
         <v>43083</v>
       </c>
@@ -6359,7 +6839,7 @@
         <v>3.7265299999999999</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:5">
       <c r="A350" s="2">
         <v>43084</v>
       </c>
@@ -6376,7 +6856,7 @@
         <v>3.7317100000000001</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:5">
       <c r="A351" s="2">
         <v>43085</v>
       </c>
@@ -6393,7 +6873,7 @@
         <v>3.7317100000000001</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:5">
       <c r="A352" s="2">
         <v>43086</v>
       </c>
@@ -6410,7 +6890,7 @@
         <v>3.7317100000000001</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:5">
       <c r="A353" s="2">
         <v>43087</v>
       </c>
@@ -6427,7 +6907,7 @@
         <v>3.7317100000000001</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:5">
       <c r="A354" s="2">
         <v>43088</v>
       </c>
@@ -6444,7 +6924,7 @@
         <v>3.7317100000000001</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:5">
       <c r="A355" s="2">
         <v>43089</v>
       </c>
@@ -6461,7 +6941,7 @@
         <v>3.7317100000000001</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:5">
       <c r="A356" s="2">
         <v>43090</v>
       </c>
@@ -6478,7 +6958,7 @@
         <v>3.7317100000000001</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:5">
       <c r="A357" s="2">
         <v>43091</v>
       </c>
@@ -6495,7 +6975,7 @@
         <v>3.7317100000000001</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:5">
       <c r="A358" s="2">
         <v>43092</v>
       </c>
@@ -6512,7 +6992,7 @@
         <v>3.7317100000000001</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:5">
       <c r="A359" s="2">
         <v>43093</v>
       </c>
@@ -6529,7 +7009,7 @@
         <v>3.7317100000000001</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:5">
       <c r="A360" s="2">
         <v>43094</v>
       </c>
@@ -6546,7 +7026,7 @@
         <v>3.7317100000000001</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:5">
       <c r="A361" s="2">
         <v>43095</v>
       </c>
@@ -6563,7 +7043,7 @@
         <v>3.7317100000000001</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:5">
       <c r="A362" s="2">
         <v>43096</v>
       </c>
@@ -6580,7 +7060,7 @@
         <v>3.7317100000000001</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:5">
       <c r="A363" s="2">
         <v>43097</v>
       </c>
@@ -6597,7 +7077,7 @@
         <v>3.7327900000000001</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:5">
       <c r="A364" s="2">
         <v>43098</v>
       </c>
@@ -6614,7 +7094,7 @@
         <v>3.7327900000000001</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:5">
       <c r="A365" s="2">
         <v>43099</v>
       </c>
@@ -6631,7 +7111,7 @@
         <v>3.7327900000000001</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:5">
       <c r="A366" s="2">
         <v>43100</v>
       </c>
@@ -6648,7 +7128,7 @@
         <v>3.7327900000000001</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:5">
       <c r="A367" s="2">
         <v>43101</v>
       </c>
@@ -6665,7 +7145,7 @@
         <v>3.7327900000000001</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:5">
       <c r="A368" s="2">
         <v>43102</v>
       </c>
@@ -6682,7 +7162,7 @@
         <v>3.7327900000000001</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:5">
       <c r="A369" s="2">
         <v>43103</v>
       </c>
@@ -6699,7 +7179,7 @@
         <v>3.7327900000000001</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:5">
       <c r="A370" s="2">
         <v>43104</v>
       </c>
@@ -6716,7 +7196,7 @@
         <v>3.7327900000000001</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:5">
       <c r="A371" s="2">
         <v>43105</v>
       </c>
@@ -6733,7 +7213,7 @@
         <v>3.7327900000000001</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:5">
       <c r="A372" s="2">
         <v>43106</v>
       </c>
@@ -6750,7 +7230,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:5">
       <c r="A373" s="2">
         <v>43107</v>
       </c>
@@ -6767,7 +7247,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:5">
       <c r="A374" s="2">
         <v>43108</v>
       </c>
@@ -6784,7 +7264,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:5">
       <c r="A375" s="2">
         <v>43109</v>
       </c>
@@ -6801,7 +7281,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:5">
       <c r="A376" s="2">
         <v>43110</v>
       </c>
@@ -6818,7 +7298,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:5">
       <c r="A377" s="2">
         <v>43111</v>
       </c>
@@ -6835,7 +7315,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:5">
       <c r="A378" s="2">
         <v>43112</v>
       </c>
@@ -6852,7 +7332,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:5">
       <c r="A379" s="2">
         <v>43113</v>
       </c>
@@ -6869,7 +7349,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:5">
       <c r="A380" s="2">
         <v>43114</v>
       </c>
@@ -6886,7 +7366,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:5">
       <c r="A381" s="2">
         <v>43115</v>
       </c>
@@ -6903,7 +7383,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:5">
       <c r="A382" s="2">
         <v>43116</v>
       </c>
@@ -6920,7 +7400,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:5">
       <c r="A383" s="2">
         <v>43117</v>
       </c>
@@ -6937,7 +7417,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:5">
       <c r="A384" s="2">
         <v>43118</v>
       </c>
@@ -6954,7 +7434,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:5">
       <c r="A385" s="2">
         <v>43119</v>
       </c>
@@ -6971,7 +7451,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:5">
       <c r="A386" s="2">
         <v>43120</v>
       </c>
@@ -6988,7 +7468,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:5">
       <c r="A387" s="2">
         <v>43121</v>
       </c>
@@ -7005,7 +7485,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:5">
       <c r="A388" s="2">
         <v>43122</v>
       </c>
@@ -7022,7 +7502,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:5">
       <c r="A389" s="2">
         <v>43123</v>
       </c>
@@ -7039,7 +7519,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:5">
       <c r="A390" s="2">
         <v>43124</v>
       </c>
@@ -7056,7 +7536,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:5">
       <c r="A391" s="2">
         <v>43125</v>
       </c>
@@ -7073,7 +7553,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:5">
       <c r="A392" s="2">
         <v>43126</v>
       </c>
@@ -7090,7 +7570,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:5">
       <c r="A393" s="2">
         <v>43127</v>
       </c>
@@ -7107,7 +7587,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:5">
       <c r="A394" s="2">
         <v>43128</v>
       </c>
@@ -7124,7 +7604,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:5">
       <c r="A395" s="2">
         <v>43129</v>
       </c>
@@ -7141,7 +7621,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:5">
       <c r="A396" s="2">
         <v>43130</v>
       </c>
@@ -7158,7 +7638,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:5">
       <c r="A397" s="2">
         <v>43131</v>
       </c>
@@ -7175,7 +7655,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:5">
       <c r="A398" s="2">
         <v>43132</v>
       </c>
@@ -7192,7 +7672,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:5">
       <c r="A399" s="2">
         <v>43133</v>
       </c>
@@ -7209,7 +7689,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:5">
       <c r="A400" s="2">
         <v>43134</v>
       </c>
@@ -7226,7 +7706,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:5">
       <c r="A401" s="2">
         <v>43135</v>
       </c>
@@ -7243,7 +7723,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:5">
       <c r="A402" s="2">
         <v>43136</v>
       </c>
@@ -7260,7 +7740,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:5">
       <c r="A403" s="2">
         <v>43137</v>
       </c>
@@ -7277,7 +7757,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:5">
       <c r="A404" s="2">
         <v>43138</v>
       </c>
@@ -7294,7 +7774,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:5">
       <c r="A405" s="2">
         <v>43139</v>
       </c>
@@ -7311,7 +7791,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:5">
       <c r="A406" s="2">
         <v>43140</v>
       </c>
@@ -7328,7 +7808,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:5">
       <c r="A407" s="2">
         <v>43141</v>
       </c>
@@ -7345,7 +7825,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:5">
       <c r="A408" s="2">
         <v>43142</v>
       </c>
@@ -7362,7 +7842,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:5">
       <c r="A409" s="2">
         <v>43143</v>
       </c>
@@ -7379,7 +7859,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:5">
       <c r="A410" s="2">
         <v>43144</v>
       </c>
@@ -7396,7 +7876,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:5">
       <c r="A411" s="2">
         <v>43145</v>
       </c>
@@ -7413,7 +7893,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:5">
       <c r="A412" s="2">
         <v>43146</v>
       </c>
@@ -7430,7 +7910,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:5">
       <c r="A413" s="2">
         <v>43147</v>
       </c>
@@ -7447,7 +7927,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:5">
       <c r="A414" s="2">
         <v>43148</v>
       </c>
@@ -7464,7 +7944,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:5">
       <c r="A415" s="2">
         <v>43149</v>
       </c>
@@ -7481,7 +7961,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:5">
       <c r="A416" s="2">
         <v>43150</v>
       </c>
@@ -7498,7 +7978,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:5">
       <c r="A417" s="2">
         <v>43151</v>
       </c>
@@ -7515,7 +7995,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:5">
       <c r="A418" s="2">
         <v>43152</v>
       </c>
@@ -7532,7 +8012,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:5">
       <c r="A419" s="2">
         <v>43153</v>
       </c>
@@ -7549,7 +8029,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:5">
       <c r="A420" s="2">
         <v>43154</v>
       </c>
@@ -7566,7 +8046,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:5">
       <c r="A421" s="2">
         <v>43155</v>
       </c>
@@ -7583,7 +8063,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:5">
       <c r="A422" s="2">
         <v>43156</v>
       </c>
@@ -7600,7 +8080,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:5">
       <c r="A423" s="2">
         <v>43157</v>
       </c>
@@ -7617,7 +8097,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:5">
       <c r="A424" s="2">
         <v>43158</v>
       </c>
@@ -7634,7 +8114,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:5">
       <c r="A425" s="2">
         <v>43159</v>
       </c>
@@ -7651,7 +8131,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:5">
       <c r="A426" s="2">
         <v>43160</v>
       </c>
@@ -7668,7 +8148,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:5">
       <c r="A427" s="2">
         <v>43161</v>
       </c>
@@ -7685,7 +8165,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:5">
       <c r="A428" s="2">
         <v>43162</v>
       </c>
@@ -7702,7 +8182,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:5">
       <c r="A429" s="2">
         <v>43163</v>
       </c>
@@ -7719,7 +8199,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:5">
       <c r="A430" s="2">
         <v>43164</v>
       </c>
@@ -7736,7 +8216,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:5">
       <c r="A431" s="2">
         <v>43165</v>
       </c>
@@ -7753,7 +8233,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:5">
       <c r="A432" s="2">
         <v>43166</v>
       </c>
@@ -7770,7 +8250,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:5">
       <c r="A433" s="2">
         <v>43167</v>
       </c>
@@ -7787,7 +8267,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:5">
       <c r="A434" s="2">
         <v>43168</v>
       </c>
@@ -7804,7 +8284,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:5">
       <c r="A435" s="2">
         <v>43169</v>
       </c>
@@ -7821,7 +8301,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:5">
       <c r="A436" s="2">
         <v>43170</v>
       </c>
@@ -7838,7 +8318,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:5">
       <c r="A437" s="2">
         <v>43171</v>
       </c>
@@ -7855,7 +8335,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:5">
       <c r="A438" s="2">
         <v>43172</v>
       </c>
@@ -7872,7 +8352,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:5">
       <c r="A439" s="2">
         <v>43173</v>
       </c>
@@ -7889,7 +8369,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:5">
       <c r="A440" s="2">
         <v>43174</v>
       </c>
@@ -7906,7 +8386,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:5">
       <c r="A441" s="2">
         <v>43175</v>
       </c>
@@ -7923,7 +8403,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:5">
       <c r="A442" s="2">
         <v>43176</v>
       </c>
@@ -7940,7 +8420,7 @@
         <v>3.73387</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:5">
       <c r="A443" s="2">
         <v>43177</v>
       </c>
@@ -7957,7 +8437,7 @@
         <v>3.7309199999999998</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:5">
       <c r="A444" s="2">
         <v>43178</v>
       </c>
@@ -7974,7 +8454,7 @@
         <v>3.7309199999999998</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:5">
       <c r="A445" s="2">
         <v>43179</v>
       </c>
@@ -7991,7 +8471,7 @@
         <v>3.7360000000000002</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:5">
       <c r="A446" s="2">
         <v>43180</v>
       </c>
@@ -8008,7 +8488,7 @@
         <v>3.7360000000000002</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:5">
       <c r="A447" s="2">
         <v>43181</v>
       </c>
@@ -8025,7 +8505,7 @@
         <v>3.7360000000000002</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:5">
       <c r="A448" s="2">
         <v>43182</v>
       </c>
@@ -8042,7 +8522,7 @@
         <v>3.7360000000000002</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:5">
       <c r="A449" s="2">
         <v>43183</v>
       </c>
@@ -8059,7 +8539,7 @@
         <v>3.7360000000000002</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:5">
       <c r="A450" s="2">
         <v>43184</v>
       </c>
@@ -8076,7 +8556,7 @@
         <v>3.7360000000000002</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:5">
       <c r="A451" s="2">
         <v>43185</v>
       </c>
@@ -8093,7 +8573,7 @@
         <v>3.7360000000000002</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:5">
       <c r="A452" s="2">
         <v>43186</v>
       </c>
@@ -8110,7 +8590,7 @@
         <v>3.7360000000000002</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:5">
       <c r="A453" s="2">
         <v>43187</v>
       </c>
@@ -8127,7 +8607,7 @@
         <v>3.7360000000000002</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:5">
       <c r="A454" s="2">
         <v>43188</v>
       </c>
@@ -8144,7 +8624,7 @@
         <v>3.7360000000000002</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:5">
       <c r="A455" s="2">
         <v>43189</v>
       </c>
@@ -8161,7 +8641,7 @@
         <v>3.7360000000000002</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:5">
       <c r="A456" s="2">
         <v>43190</v>
       </c>
@@ -8178,7 +8658,7 @@
         <v>3.7360000000000002</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:5">
       <c r="A457" s="2">
         <v>43191</v>
       </c>
@@ -8195,7 +8675,7 @@
         <v>3.7360000000000002</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:5">
       <c r="A458" s="2">
         <v>43192</v>
       </c>
@@ -8212,7 +8692,7 @@
         <v>3.7360000000000002</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:5">
       <c r="A459" s="2">
         <v>43193</v>
       </c>
@@ -8229,7 +8709,7 @@
         <v>3.7360000000000002</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:5">
       <c r="A460" s="2">
         <v>43194</v>
       </c>
@@ -8246,7 +8726,7 @@
         <v>3.7360000000000002</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:5">
       <c r="A461" s="2">
         <v>43195</v>
       </c>
@@ -8263,7 +8743,7 @@
         <v>3.7360000000000002</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:5">
       <c r="A462" s="2">
         <v>43196</v>
       </c>
@@ -8280,7 +8760,7 @@
         <v>3.7360000000000002</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:5">
       <c r="A463" s="2">
         <v>43197</v>
       </c>
@@ -8297,7 +8777,7 @@
         <v>3.7360000000000002</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:5">
       <c r="A464" s="2">
         <v>43198</v>
       </c>
@@ -8314,7 +8794,7 @@
         <v>3.7360000000000002</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:5">
       <c r="A465" s="2">
         <v>43199</v>
       </c>
@@ -8331,7 +8811,7 @@
         <v>3.7360000000000002</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:5">
       <c r="A466" s="2">
         <v>43200</v>
       </c>
@@ -8348,7 +8828,7 @@
         <v>3.7360000000000002</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:5">
       <c r="A467" s="2">
         <v>43201</v>
       </c>
@@ -8365,7 +8845,7 @@
         <v>3.7360000000000002</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:5">
       <c r="A468" s="2">
         <v>43202</v>
       </c>
@@ -8382,7 +8862,7 @@
         <v>3.7360000000000002</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:5">
       <c r="A469" s="2">
         <v>43203</v>
       </c>
@@ -8399,7 +8879,7 @@
         <v>3.7360000000000002</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:5">
       <c r="A470" s="2">
         <v>43204</v>
       </c>
@@ -8416,7 +8896,7 @@
         <v>3.7360000000000002</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:5">
       <c r="A471" s="2">
         <v>43205</v>
       </c>
@@ -8433,7 +8913,7 @@
         <v>3.7360000000000002</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:5">
       <c r="A472" s="2">
         <v>43206</v>
       </c>
@@ -8450,7 +8930,7 @@
         <v>3.7360000000000002</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:5">
       <c r="A473" s="2">
         <v>43207</v>
       </c>
@@ -8467,7 +8947,7 @@
         <v>3.7360000000000002</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:5">
       <c r="A474" s="2">
         <v>43208</v>
       </c>
@@ -8484,7 +8964,7 @@
         <v>3.7360000000000002</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:5">
       <c r="A475" s="2">
         <v>43209</v>
       </c>
@@ -8501,7 +8981,7 @@
         <v>3.7360000000000002</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:5">
       <c r="A476" s="2">
         <v>43210</v>
       </c>
@@ -8518,7 +8998,7 @@
         <v>3.7360000000000002</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:5">
       <c r="A477" s="2">
         <v>43211</v>
       </c>
@@ -8535,7 +9015,7 @@
         <v>3.7360000000000002</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:5">
       <c r="A478" s="2">
         <v>43212</v>
       </c>
@@ -8552,7 +9032,7 @@
         <v>3.7360000000000002</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:5">
       <c r="A479" s="2">
         <v>43213</v>
       </c>
@@ -8569,7 +9049,7 @@
         <v>3.7360000000000002</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:5">
       <c r="A480" s="2">
         <v>43214</v>
       </c>
@@ -8586,7 +9066,7 @@
         <v>3.7360000000000002</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:5">
       <c r="A481" s="2">
         <v>43215</v>
       </c>
@@ -8603,7 +9083,7 @@
         <v>3.7360000000000002</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:5">
       <c r="A482" s="2">
         <v>43216</v>
       </c>
@@ -8620,7 +9100,7 @@
         <v>3.7360000000000002</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:5">
       <c r="A483" s="2">
         <v>43217</v>
       </c>
@@ -8637,7 +9117,7 @@
         <v>3.7360000000000002</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:5">
       <c r="A484" s="2">
         <v>43218</v>
       </c>
@@ -8654,7 +9134,7 @@
         <v>3.7360000000000002</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:5">
       <c r="A485" s="2">
         <v>43219</v>
       </c>
@@ -8671,7 +9151,7 @@
         <v>3.7360000000000002</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:5">
       <c r="A486" s="2">
         <v>43220</v>
       </c>
@@ -8688,7 +9168,7 @@
         <v>3.7360000000000002</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:5">
       <c r="A487" s="2">
         <v>43221</v>
       </c>
@@ -8705,7 +9185,7 @@
         <v>3.7360000000000002</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:5">
       <c r="A488" s="2">
         <v>43222</v>
       </c>
@@ -8722,7 +9202,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:5">
       <c r="A489" s="2">
         <v>43223</v>
       </c>
@@ -8739,7 +9219,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:5">
       <c r="A490" s="2">
         <v>43224</v>
       </c>
@@ -8756,7 +9236,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:5">
       <c r="A491" s="2">
         <v>43225</v>
       </c>
@@ -8773,7 +9253,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:5">
       <c r="A492" s="2">
         <v>43226</v>
       </c>
@@ -8790,7 +9270,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:5">
       <c r="A493" s="2">
         <v>43227</v>
       </c>
@@ -8807,7 +9287,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:5">
       <c r="A494" s="2">
         <v>43228</v>
       </c>
@@ -8824,7 +9304,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:5">
       <c r="A495" s="2">
         <v>43229</v>
       </c>
@@ -8841,7 +9321,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:5">
       <c r="A496" s="2">
         <v>43230</v>
       </c>
@@ -8858,7 +9338,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:5">
       <c r="A497" s="2">
         <v>43231</v>
       </c>
@@ -8875,7 +9355,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:5">
       <c r="A498" s="2">
         <v>43232</v>
       </c>
@@ -8892,7 +9372,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:5">
       <c r="A499" s="2">
         <v>43233</v>
       </c>
@@ -8909,7 +9389,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:5">
       <c r="A500" s="2">
         <v>43234</v>
       </c>
@@ -8926,7 +9406,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:5">
       <c r="A501" s="2">
         <v>43235</v>
       </c>
@@ -8943,7 +9423,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:5">
       <c r="A502" s="2">
         <v>43236</v>
       </c>
@@ -8960,7 +9440,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:5">
       <c r="A503" s="2">
         <v>43237</v>
       </c>
@@ -8977,7 +9457,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:5">
       <c r="A504" s="2">
         <v>43238</v>
       </c>
@@ -8994,7 +9474,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:5">
       <c r="A505" s="2">
         <v>43239</v>
       </c>
@@ -9011,7 +9491,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:5">
       <c r="A506" s="2">
         <v>43240</v>
       </c>
@@ -9028,7 +9508,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:5">
       <c r="A507" s="2">
         <v>43241</v>
       </c>
@@ -9045,7 +9525,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:5">
       <c r="A508" s="2">
         <v>43242</v>
       </c>
@@ -9062,7 +9542,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:5">
       <c r="A509" s="2">
         <v>43243</v>
       </c>
@@ -9079,7 +9559,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:5">
       <c r="A510" s="2">
         <v>43244</v>
       </c>
@@ -9096,7 +9576,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:5">
       <c r="A511" s="2">
         <v>43245</v>
       </c>
@@ -9113,7 +9593,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:5">
       <c r="A512" s="2">
         <v>43246</v>
       </c>
@@ -9130,7 +9610,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:5">
       <c r="A513" s="2">
         <v>43247</v>
       </c>
@@ -9147,7 +9627,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:5">
       <c r="A514" s="2">
         <v>43248</v>
       </c>
@@ -9164,7 +9644,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:5">
       <c r="A515" s="2">
         <v>43249</v>
       </c>
@@ -9181,7 +9661,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:5">
       <c r="A516" s="2">
         <v>43250</v>
       </c>
@@ -9198,7 +9678,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:5">
       <c r="A517" s="2">
         <v>43251</v>
       </c>
@@ -9215,7 +9695,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:5">
       <c r="A518" s="2">
         <v>43252</v>
       </c>
@@ -9232,7 +9712,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:5">
       <c r="A519" s="2">
         <v>43253</v>
       </c>
@@ -9249,7 +9729,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:5">
       <c r="A520" s="2">
         <v>43254</v>
       </c>
@@ -9266,7 +9746,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:5">
       <c r="A521" s="2">
         <v>43255</v>
       </c>
@@ -9283,7 +9763,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:5">
       <c r="A522" s="2">
         <v>43256</v>
       </c>
@@ -9300,7 +9780,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:5">
       <c r="A523" s="2">
         <v>43257</v>
       </c>
@@ -9317,7 +9797,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:5">
       <c r="A524" s="2">
         <v>43258</v>
       </c>
@@ -9334,7 +9814,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:5">
       <c r="A525" s="2">
         <v>43259</v>
       </c>
@@ -9351,7 +9831,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:5">
       <c r="A526" s="2">
         <v>43260</v>
       </c>
@@ -9368,7 +9848,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:5">
       <c r="A527" s="2">
         <v>43261</v>
       </c>
@@ -9385,7 +9865,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:5">
       <c r="A528" s="2">
         <v>43262</v>
       </c>
@@ -9402,7 +9882,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:5">
       <c r="A529" s="2">
         <v>43263</v>
       </c>
@@ -9419,7 +9899,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:5">
       <c r="A530" s="2">
         <v>43264</v>
       </c>
@@ -9436,7 +9916,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:5">
       <c r="A531" s="2">
         <v>43265</v>
       </c>
@@ -9453,7 +9933,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:5">
       <c r="A532" s="2">
         <v>43266</v>
       </c>
@@ -9470,7 +9950,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:5">
       <c r="A533" s="2">
         <v>43267</v>
       </c>
@@ -9487,7 +9967,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:5">
       <c r="A534" s="2">
         <v>43268</v>
       </c>
@@ -9504,7 +9984,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:5">
       <c r="A535" s="2">
         <v>43269</v>
       </c>
@@ -9521,7 +10001,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:5">
       <c r="A536" s="2">
         <v>43270</v>
       </c>
@@ -9538,7 +10018,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:5">
       <c r="A537" s="2">
         <v>43271</v>
       </c>
@@ -9555,7 +10035,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:5">
       <c r="A538" s="2">
         <v>43272</v>
       </c>
@@ -9572,7 +10052,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:5">
       <c r="A539" s="2">
         <v>43273</v>
       </c>
@@ -9589,7 +10069,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:5">
       <c r="A540" s="2">
         <v>43274</v>
       </c>
@@ -9606,7 +10086,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:5">
       <c r="A541" s="2">
         <v>43275</v>
       </c>
@@ -9623,7 +10103,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:5">
       <c r="A542" s="2">
         <v>43276</v>
       </c>
@@ -9640,7 +10120,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:5">
       <c r="A543" s="2">
         <v>43277</v>
       </c>
@@ -9657,7 +10137,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:5">
       <c r="A544" s="2">
         <v>43278</v>
       </c>
@@ -9674,7 +10154,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:5">
       <c r="A545" s="2">
         <v>43279</v>
       </c>
@@ -9691,7 +10171,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:5">
       <c r="A546" s="2">
         <v>43280</v>
       </c>
@@ -9708,7 +10188,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:5">
       <c r="A547" s="2">
         <v>43281</v>
       </c>
@@ -9725,7 +10205,7 @@
         <v>3.73705</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:5">
       <c r="A548" s="2">
         <v>43282</v>
       </c>
